--- a/storage/template/BWMSolver.xlsx
+++ b/storage/template/BWMSolver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\01-portofolio\taimam\storage\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA9EE0D-82BF-4182-AB60-609C403365B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E68075E-9E0F-4EC4-BAAB-52DB8BBB701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="BWM-Solver-5" sheetId="22" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BWM-Solver-5'!$B$8:$C$8</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$23:$F$23,'BWM-Solver-5'!$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BWM-Solver-5'!$B$11:$C$11</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$26:$F$26,'BWM-Solver-5'!$C$28</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
@@ -29,11 +29,11 @@
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$29</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$32</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Instruction!$B$36:$F$37</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$31:$F$32</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$34:$F$35</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Instruction!$B$36:$F$37</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$34:$F$35</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$37:$F$38</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Instruction!$B$36:$F$37</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Instruction!$B$36:$F$37</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
@@ -52,7 +52,7 @@
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$25</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$28</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
@@ -66,9 +66,9 @@
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Instruction!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$25</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$28</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Instruction!#REF!</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$25</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'BWM-Solver-5'!$C$28</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Instruction!#REF!</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Instruction!#REF!</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Ksi*</t>
   </si>
@@ -460,6 +460,15 @@
   </si>
   <si>
     <t>WARNING! PLEASE CHANGE THE GREEN COLUMN ONLY</t>
+  </si>
+  <si>
+    <t>Types of Criteria</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -716,7 +725,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -860,32 +869,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,11 +940,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1013,7 +1036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BWM-Solver-5'!$B$22</c:f>
+              <c:f>'BWM-Solver-5'!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1025,7 +1048,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'BWM-Solver-5'!$C$22:$G$22</c:f>
+              <c:f>'BWM-Solver-5'!$C$25:$G$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1045,21 +1068,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BWM-Solver-5'!$C$23:$G$23</c:f>
+              <c:f>'BWM-Solver-5'!$C$26:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.46551724137931033</c:v>
+                  <c:v>0.57180851063829796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25862068965517238</c:v>
+                  <c:v>0.22606382978723408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17241379310344829</c:v>
+                  <c:v>0.1356382978723405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10344827586206896</c:v>
+                  <c:v>6.6489361702127672E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,13 +1706,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600409</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>165935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2028,14 +2051,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5" t="s">
         <v>43</v>
@@ -2048,18 +2071,18 @@
       <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="52" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="7"/>
@@ -2070,14 +2093,14 @@
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="54"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -2086,14 +2109,14 @@
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="54"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2102,12 +2125,12 @@
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -2118,12 +2141,12 @@
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -2134,12 +2157,12 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -2150,12 +2173,12 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2166,12 +2189,12 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -2200,14 +2223,14 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2218,12 +2241,12 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -2234,12 +2257,12 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>20</v>
@@ -2252,12 +2275,12 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="H14" s="7"/>
       <c r="I14" s="10"/>
       <c r="J14" s="7"/>
@@ -2268,12 +2291,12 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
       <c r="J15" s="7"/>
@@ -2284,12 +2307,12 @@
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="10"/>
       <c r="J16" s="7"/>
@@ -2307,11 +2330,11 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -2329,57 +2352,57 @@
       <c r="H18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -2406,14 +2429,14 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -2424,12 +2447,12 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -2440,14 +2463,14 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="H25" s="14"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -2458,18 +2481,18 @@
       <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
       <c r="H26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="50" t="s">
         <v>26</v>
       </c>
       <c r="J26" s="17"/>
@@ -2480,16 +2503,16 @@
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="52"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="17"/>
       <c r="K27" s="18" t="s">
         <v>14</v>
@@ -2501,110 +2524,110 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H28" s="17"/>
-      <c r="I28" s="52"/>
+      <c r="I28" s="50"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="47" t="s">
+      <c r="K28" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="47" t="s">
+      <c r="K31" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="47" t="s">
+      <c r="K32" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
       <c r="O33" s="17"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="47" t="s">
+      <c r="K34" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H35" s="17"/>
       <c r="I35" s="19"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="47" t="s">
+      <c r="K35" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="8:15" x14ac:dyDescent="0.25">
@@ -3048,7 +3071,7 @@
       <c r="H79" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I79" s="50" t="s">
+      <c r="I79" s="48" t="s">
         <v>17</v>
       </c>
       <c r="J79" s="22"/>
@@ -3060,7 +3083,7 @@
     </row>
     <row r="80" spans="8:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H80" s="22"/>
-      <c r="I80" s="50"/>
+      <c r="I80" s="48"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
@@ -3083,6 +3106,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="42FbcNzVSZuuPre4VLRZ7eoH1n3a/Lrepv6orEMNjIvdtmbIk0ImhJ4WgCBE/ccHrofXCsycXzqyhWeED8JtoA==" saltValue="JSpLQWBmlG3bVvPx4nHbGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="I79:I80"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I26:I28"/>
@@ -3099,12 +3128,6 @@
     <mergeCell ref="A11:F16"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A23:F24"/>
-    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A20:F21" r:id="rId1" display="Rezaei, J. (2016). Best-worst multi-criteria decision-making method: Some properties and a linear model. Omega, 64, 126-130." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3119,10 +3142,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:Q38"/>
+  <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,13 +3160,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
@@ -3203,35 +3226,25 @@
       <c r="F6" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
@@ -3239,158 +3252,139 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="40" t="str">
+        <f>C6</f>
+        <v>Harga</v>
+      </c>
+      <c r="D8" s="40" t="str">
+        <f>D6</f>
+        <v>Jarak</v>
+      </c>
+      <c r="E8" s="40" t="str">
+        <f>E6</f>
+        <v>Rating</v>
+      </c>
+      <c r="F8" s="40" t="str">
+        <f>F6</f>
+        <v>Jumlah Terjual</v>
+      </c>
+      <c r="G8" s="69"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="35" t="str">
-        <f>IF($C$8=$C$6,$C$7,IF($C$8=$D$6,$D$7,IF($C$8=$E$6,$E$7,IF($C$8=$F$6,$F$7))))</f>
-        <v>C1</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="30"/>
+      <c r="B9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="35" t="str">
-        <f>IF($C$10=$C$6,$C$7,IF($C$10=$D$6,$D$7,IF($C$10=$E$6,$E$7,IF($C$10=$F$6,$F$7))))</f>
-        <v>C4</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="30"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="57">
-        <v>4</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="40" t="str">
-        <f>IF(C$6="",C$5,C$6)</f>
-        <v>Harga</v>
-      </c>
-      <c r="D12" s="40" t="str">
-        <f>IF(D$6="",D$5,D$6)</f>
-        <v>Jarak</v>
-      </c>
-      <c r="E12" s="40" t="str">
-        <f>IF(E$6="",E$5,E$6)</f>
-        <v>Rating</v>
-      </c>
-      <c r="F12" s="40" t="str">
-        <f>IF(F$6="",F$5,F$6)</f>
-        <v>Jumlah Terjual</v>
-      </c>
-      <c r="H12" s="44"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="35" t="str">
+        <f>IF($C$11=$C$6,$C$10,IF($C$11=$D$6,$D$10,IF($C$11=$E$6,$E$10,IF($C$11=$F$6,$F$10))))</f>
+        <v>C1</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="57"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="str">
-        <f>C8</f>
-        <v>Harga</v>
-      </c>
-      <c r="C13" s="31">
-        <v>1</v>
-      </c>
-      <c r="D13" s="31">
-        <v>2</v>
-      </c>
-      <c r="E13" s="31">
-        <v>3</v>
-      </c>
-      <c r="F13" s="31">
-        <v>4</v>
-      </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="35">
-        <f>IF(MAX($C$13:$F$13)=1,0, ABS(C13*C16-MAX($C$13:$F$13))/(MAX($C$13:$F$13)*MAX($C$13:$F$13)-MAX($C$13:$F$13)))</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="35">
-        <f>IF(MAX($C$13:$F$13)=1,0, ABS(D13*C17-MAX($C$13:$F$13))/(MAX($C$13:$F$13)*MAX($C$13:$F$13)-MAX($C$13:$F$13)))</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K13" s="35">
-        <f>IF(MAX($C$13:$F$13)=1,0, ABS(E13*C18-MAX($C$13:$F$13))/(MAX($C$13:$F$13)*MAX($C$13:$F$13)-MAX($C$13:$F$13)))</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L13" s="35">
-        <f>IF(MAX($C$13:$F$13)=1,0, ABS(F13*C19-MAX($C$13:$F$13))/(MAX($C$13:$F$13)*MAX($C$13:$F$13)-MAX($C$13:$F$13)))</f>
-        <v>0</v>
-      </c>
+      <c r="B13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
@@ -3399,15 +3393,21 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="C14" s="35" t="str">
+        <f>IF($C$13=$C$6,$C$10,IF($C$13=$D$6,$D$10,IF($C$13=$E$6,$E$10,IF($C$13=$F$6,$F$10))))</f>
+        <v>C4</v>
+      </c>
       <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="J14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="60">
+        <v>4</v>
+      </c>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
@@ -3417,66 +3417,83 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C15" s="40" t="str">
-        <f>C10</f>
+        <f>IF(C$6="",C$5,C$6)</f>
+        <v>Harga</v>
+      </c>
+      <c r="D15" s="40" t="str">
+        <f>IF(D$6="",D$5,D$6)</f>
+        <v>Jarak</v>
+      </c>
+      <c r="E15" s="40" t="str">
+        <f>IF(E$6="",E$5,E$6)</f>
+        <v>Rating</v>
+      </c>
+      <c r="F15" s="40" t="str">
+        <f>IF(F$6="",F$5,F$6)</f>
         <v>Jumlah Terjual</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="J15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="60"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="57">
-        <v>4</v>
-      </c>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="35"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="str">
-        <f>IF(C$6="",C$5,C$6)</f>
+        <f>C11</f>
         <v>Harga</v>
       </c>
       <c r="C16" s="31">
-        <v>4</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="31">
+        <v>3</v>
+      </c>
+      <c r="E16" s="31">
+        <v>5</v>
+      </c>
+      <c r="F16" s="31">
+        <v>7</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="35">
+        <f>IF(MAX($C$16:$F$16)=1,0, ABS(C16*C19-MAX($C$16:$F$16))/(MAX($C$16:$F$16)*MAX($C$16:$F$16)-MAX($C$16:$F$16)))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
+        <f>IF(MAX($C$16:$F$16)=1,0, ABS(D16*C20-MAX($C$16:$F$16))/(MAX($C$16:$F$16)*MAX($C$16:$F$16)-MAX($C$16:$F$16)))</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="K16" s="35">
+        <f>IF(MAX($C$16:$F$16)=1,0, ABS(E16*C21-MAX($C$16:$F$16))/(MAX($C$16:$F$16)*MAX($C$16:$F$16)-MAX($C$16:$F$16)))</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="L16" s="35">
+        <f>IF(MAX($C$16:$F$16)=1,0, ABS(F16*C22-MAX($C$16:$F$16))/(MAX($C$16:$F$16)*MAX($C$16:$F$16)-MAX($C$16:$F$16)))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="35"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="str">
-        <f>IF(D$6="",D$5,D$6)</f>
-        <v>Jarak</v>
-      </c>
-      <c r="C17" s="31">
-        <v>3</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -3484,26 +3501,22 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="36">
-        <v>3</v>
-      </c>
-      <c r="N17" s="36">
-        <v>0.16669999999999999</v>
-      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="35"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="str">
-        <f>IF(E$6="",E$5,E$6)</f>
-        <v>Rating</v>
-      </c>
-      <c r="C18" s="31">
-        <v>2</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="B18" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="40" t="str">
+        <f>C13</f>
+        <v>Jumlah Terjual</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -3511,26 +3524,26 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="36">
+      <c r="M18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="60">
         <v>4</v>
-      </c>
-      <c r="N18" s="36">
-        <v>0.1898</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="str">
-        <f>IF(F$6="",F$5,F$6)</f>
-        <v>Jumlah Terjual</v>
+      <c r="B19" s="40" t="str">
+        <f>IF(C$6="",C$5,C$6)</f>
+        <v>Harga</v>
       </c>
       <c r="C19" s="31">
-        <v>1</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -3538,287 +3551,306 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="36">
-        <v>5</v>
-      </c>
-      <c r="N19" s="36">
-        <v>0.2306</v>
-      </c>
+      <c r="M19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="60"/>
       <c r="O19" s="35"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="B20" s="41" t="str">
+        <f>IF(D$6="",D$5,D$6)</f>
+        <v>Jarak</v>
+      </c>
+      <c r="C20" s="31">
+        <v>5</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N20" s="36">
-        <v>0.26429999999999998</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="B21" s="41" t="str">
+        <f>IF(E$6="",E$5,E$6)</f>
+        <v>Rating</v>
+      </c>
+      <c r="C21" s="31">
+        <v>3</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="35"/>
       <c r="M21" s="36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N21" s="36">
-        <v>0.28189999999999998</v>
+        <v>0.1898</v>
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="41" t="str">
+        <f>IF(F$6="",F$5,F$6)</f>
+        <v>Jumlah Terjual</v>
+      </c>
+      <c r="C22" s="31">
         <v>1</v>
       </c>
-      <c r="C22" s="40" t="str">
-        <f>C12</f>
-        <v>Harga</v>
-      </c>
-      <c r="D22" s="40" t="str">
-        <f>D12</f>
-        <v>Jarak</v>
-      </c>
-      <c r="E22" s="40" t="str">
-        <f>E12</f>
-        <v>Rating</v>
-      </c>
-      <c r="F22" s="40" t="str">
-        <f>F12</f>
-        <v>Jumlah Terjual</v>
-      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N22" s="36">
-        <v>0.29580000000000001</v>
-      </c>
-      <c r="O22" s="37"/>
+        <v>0.2306</v>
+      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="59"/>
-      <c r="C23" s="45">
-        <v>0.46551724137931033</v>
-      </c>
-      <c r="D23" s="45">
-        <v>0.25862068965517238</v>
-      </c>
-      <c r="E23" s="45">
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="F23" s="45">
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37">
-        <v>9</v>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36">
+        <v>6</v>
       </c>
       <c r="N23" s="36">
-        <v>0.30620000000000003</v>
-      </c>
-      <c r="O23" s="37"/>
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35">
-        <f>MAX(C13:G13)</f>
-        <v>4</v>
-      </c>
-      <c r="O24" s="37"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36">
+        <v>7</v>
+      </c>
+      <c r="N24" s="36">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="O24" s="35"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="46">
-        <v>5.1724137931034489E-2</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="B25" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="40" t="str">
+        <f>C15</f>
+        <v>Harga</v>
+      </c>
+      <c r="D25" s="40" t="str">
+        <f>D15</f>
+        <v>Jarak</v>
+      </c>
+      <c r="E25" s="40" t="str">
+        <f>E15</f>
+        <v>Rating</v>
+      </c>
+      <c r="F25" s="40" t="str">
+        <f>F15</f>
+        <v>Jumlah Terjual</v>
+      </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35">
-        <f>VLOOKUP(N24,M17:N23,2)</f>
-        <v>0.1898</v>
+      <c r="M25" s="36">
+        <v>8</v>
+      </c>
+      <c r="N25" s="36">
+        <v>0.29580000000000001</v>
       </c>
       <c r="O25" s="37"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
-        <v>45</v>
-      </c>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="62"/>
       <c r="C26" s="45">
-        <f>MAX(I13:L13)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D26" s="65" t="str">
-        <f>IF(C26&lt;C27, "The pairwise comparison consistency level is acceptable", "The pairwise comparison consistency level is not acceptable")</f>
-        <v>The pairwise comparison consistency level is acceptable</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
+        <v>0.57180851063829796</v>
+      </c>
+      <c r="D26" s="45">
+        <v>0.22606382978723408</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0.1356382978723405</v>
+      </c>
+      <c r="F26" s="45">
+        <v>6.6489361702127672E-2</v>
+      </c>
       <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37">
+        <v>9</v>
+      </c>
+      <c r="N26" s="36">
+        <v>0.30620000000000003</v>
+      </c>
+      <c r="O26" s="37"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="42">
-        <f>N25</f>
-        <v>0.1898</v>
-      </c>
-      <c r="D27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35">
+        <f>MAX(C16:G16)</f>
+        <v>7</v>
+      </c>
+      <c r="O27" s="37"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="35">
-        <f>SUM(C23:F23)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="33"/>
+      <c r="B28" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="46">
+        <v>0.10638297872340431</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35">
+        <f>VLOOKUP(N27,M20:N26,2)</f>
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="O28" s="37"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="45">
+        <f>MAX(I16:L16)</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="D29" s="57" t="str">
+        <f>IF(C29&lt;C30, "The pairwise comparison consistency level is acceptable", "The pairwise comparison consistency level is not acceptable")</f>
+        <v>The pairwise comparison consistency level is acceptable</v>
+      </c>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="B30" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="42">
+        <f>N28</f>
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="30"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
-      <c r="B31" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="35">
-        <f>IF($C$13=1,$C$23,IF($D$13=1,$D$23,IF($E$13=1,$E$23,IF($F$13=1,$F$23))))-C13*C23</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="35">
-        <f>IF($C$13=1,$C$23,IF($D$13=1,$D$23,IF($E$13=1,$E$23,IF($F$13=1,$F$23))))-D13*D23</f>
-        <v>-5.172413793103442E-2</v>
-      </c>
-      <c r="E31" s="35">
-        <f>IF($C$13=1,$C$23,IF($D$13=1,$D$23,IF($E$13=1,$E$23,IF($F$13=1,$F$23))))-E13*E23</f>
-        <v>-5.1724137931034531E-2</v>
-      </c>
-      <c r="F31" s="35">
-        <f>IF($C$13=1,$C$23,IF($D$13=1,$D$23,IF($E$13=1,$E$23,IF($F$13=1,$F$23))))-F13*F23</f>
-        <v>5.1724137931034475E-2</v>
-      </c>
-      <c r="G31" s="30"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
-      <c r="B32" s="35"/>
+      <c r="B32" s="35" t="s">
+        <v>8</v>
+      </c>
       <c r="C32" s="35">
-        <f>-C31</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="35">
-        <f>-D31</f>
-        <v>5.172413793103442E-2</v>
-      </c>
-      <c r="E32" s="35">
-        <f>-E31</f>
-        <v>5.1724137931034531E-2</v>
-      </c>
-      <c r="F32" s="35">
-        <f>-F31</f>
-        <v>-5.1724137931034475E-2</v>
-      </c>
+        <f>SUM(C26:F26)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="30"/>
       <c r="H32" s="33"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -3827,100 +3859,160 @@
       <c r="F33" s="35"/>
       <c r="G33" s="30"/>
       <c r="H33" s="33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="35">
-        <f>C23-$C16*IF($C$16=1,$C$23,IF($C$17=1,$D$23,IF($C$18=1,$E$23,IF($C$19=1,$F$23))))</f>
-        <v>5.1724137931034475E-2</v>
+        <f>IF($C$16=1,$C$26,IF($D$16=1,$D$26,IF($E$16=1,$E$26,IF($F$16=1,$F$26))))-C16*C26</f>
+        <v>0</v>
       </c>
       <c r="D34" s="35">
-        <f>D23-$C17*IF($C$16=1,$C$23,IF($C$17=1,$D$23,IF($C$18=1,$E$23,IF($C$19=1,$F$23))))</f>
-        <v>-5.1724137931034531E-2</v>
+        <f>IF($C$16=1,$C$26,IF($D$16=1,$D$26,IF($E$16=1,$E$26,IF($F$16=1,$F$26))))-D16*D26</f>
+        <v>-0.1063829787234043</v>
       </c>
       <c r="E34" s="35">
-        <f>E23-$C18*IF($C$16=1,$C$23,IF($C$17=1,$D$23,IF($C$18=1,$E$23,IF($C$19=1,$F$23))))</f>
-        <v>-3.4482758620689641E-2</v>
+        <f>IF($C$16=1,$C$26,IF($D$16=1,$D$26,IF($E$16=1,$E$26,IF($F$16=1,$F$26))))-E16*E26</f>
+        <v>-0.10638297872340452</v>
       </c>
       <c r="F34" s="35">
-        <f>F23-$C19*IF($C$16=1,$C$23,IF($C$17=1,$D$23,IF($C$18=1,$E$23,IF($C$19=1,$F$23))))</f>
-        <v>0</v>
+        <f>IF($C$16=1,$C$26,IF($D$16=1,$D$26,IF($E$16=1,$E$26,IF($F$16=1,$F$26))))-F16*F26</f>
+        <v>0.10638297872340424</v>
       </c>
       <c r="G34" s="30"/>
       <c r="H34" s="33"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35">
         <f>-C34</f>
-        <v>-5.1724137931034475E-2</v>
+        <v>0</v>
       </c>
       <c r="D35" s="35">
         <f>-D34</f>
-        <v>5.1724137931034531E-2</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="E35" s="35">
         <f>-E34</f>
-        <v>3.4482758620689641E-2</v>
+        <v>0.10638297872340452</v>
       </c>
       <c r="F35" s="35">
         <f>-F34</f>
-        <v>0</v>
+        <v>-0.10638297872340424</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="33"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="30"/>
       <c r="H36" s="33"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="35">
+        <f>C26-$C19*IF($C$19=1,$C$26,IF($C$20=1,$D$26,IF($C$21=1,$E$26,IF($C$22=1,$F$26))))</f>
+        <v>0.10638297872340424</v>
+      </c>
+      <c r="D37" s="35">
+        <f>D26-$C20*IF($C$19=1,$C$26,IF($C$20=1,$D$26,IF($C$21=1,$E$26,IF($C$22=1,$F$26))))</f>
+        <v>-0.10638297872340427</v>
+      </c>
+      <c r="E37" s="35">
+        <f>E26-$C21*IF($C$19=1,$C$26,IF($C$20=1,$D$26,IF($C$21=1,$E$26,IF($C$22=1,$F$26))))</f>
+        <v>-6.3829787234042534E-2</v>
+      </c>
+      <c r="F37" s="35">
+        <f>F26-$C22*IF($C$19=1,$C$26,IF($C$20=1,$D$26,IF($C$21=1,$E$26,IF($C$22=1,$F$26))))</f>
+        <v>0</v>
+      </c>
       <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="H37" s="33"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35">
+        <f>-C37</f>
+        <v>-0.10638297872340424</v>
+      </c>
+      <c r="D38" s="35">
+        <f>-D37</f>
+        <v>0.10638297872340427</v>
+      </c>
+      <c r="E38" s="35">
+        <f>-E37</f>
+        <v>6.3829787234042534E-2</v>
+      </c>
+      <c r="F38" s="35">
+        <f>-F37</f>
+        <v>0</v>
+      </c>
       <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D29:K29"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="K14:K15"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G26:J26"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -3928,12 +4020,18 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:F13 C16:C19" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:F16 C19:C22" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C8" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>$C$6:$G$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>$C$6:$F$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{0C06519D-974E-487C-A88E-79972388414C}">
+      <formula1>$C$6:$F$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:F9" xr:uid="{CB1C4514-3333-4EC5-8C5F-89F27A45A4AB}">
+      <formula1>"Benefit,Cost"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
